--- a/Measurements/ECG_9_EIND_Triangle_1000Fs.xlsx
+++ b/Measurements/ECG_9_EIND_Triangle_1000Fs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Documents\GitHub\IBES\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAEE01D-F809-4AA2-BAB3-B9E1778F665B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DCF2D8-C3F3-4206-98A8-C32841BEE06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
     <t>time</t>
   </si>
   <si>
-    <t>Sampling Frequency</t>
+    <t>ECG</t>
   </si>
   <si>
-    <t>ECG</t>
+    <t>SamplingFrequency</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:C5001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,10 +419,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
